--- a/Project Outputs for caton-m-trad/BOM/Bill of Materials-caton-pcb.xlsx
+++ b/Project Outputs for caton-m-trad/BOM/Bill of Materials-caton-pcb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Repositories\caton-pcb\Project Outputs for caton-m-trad\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D63A0F91-1E3F-477F-A724-578EAF7FCBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48C13D11-DA27-47E2-93B9-D2EC73D28A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="21600" windowHeight="11320" xr2:uid="{D107BE75-FDF6-4AF4-BB01-89DA9D3C590A}"/>
+    <workbookView xWindow="12876" yWindow="3612" windowWidth="24876" windowHeight="17856" xr2:uid="{26385B63-9ECF-4F02-B14D-3509ACB97A0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-caton-pcb" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="136">
   <si>
     <t>Comment</t>
   </si>
@@ -98,7 +98,7 @@
     <t>C5</t>
   </si>
   <si>
-    <t>C115056</t>
+    <t>C382730</t>
   </si>
   <si>
     <t>0.1 uF</t>
@@ -434,13 +434,16 @@
     <t>926-LP2951ACSD/NOPB</t>
   </si>
   <si>
-    <t>GDZ5V1LP3-7</t>
+    <t>MM5Z5V1T1G</t>
   </si>
   <si>
     <t>Z1, Z2, Z3, Z4</t>
   </si>
   <si>
-    <t>C531176</t>
+    <t>SOD-523</t>
+  </si>
+  <si>
+    <t>C146754</t>
   </si>
   <si>
     <t>Zener Diode</t>
@@ -839,25 +842,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900F00E1-9CA0-4A74-8A40-5D3A9C522BC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457B04C7-8F15-45F5-8834-89B48F954577}">
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" customWidth="1"/>
-    <col min="5" max="5" width="86.453125" customWidth="1"/>
-    <col min="6" max="6" width="10.36328125" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" customWidth="1"/>
-    <col min="8" max="8" width="25.81640625" customWidth="1"/>
-    <col min="9" max="10" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="59.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="86.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="9" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -889,7 +892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -917,7 +920,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -945,7 +948,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -973,7 +976,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -1001,7 +1004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -1029,7 +1032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
@@ -1057,7 +1060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -1085,7 +1088,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -1113,7 +1116,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -1141,7 +1144,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
@@ -1169,7 +1172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -1197,7 +1200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
@@ -1227,7 +1230,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>54</v>
       </c>
@@ -1249,7 +1252,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>58</v>
       </c>
@@ -1273,7 +1276,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>62</v>
       </c>
@@ -1297,7 +1300,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>67</v>
       </c>
@@ -1319,7 +1322,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>70</v>
       </c>
@@ -1341,7 +1344,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>74</v>
       </c>
@@ -1369,7 +1372,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>78</v>
       </c>
@@ -1397,7 +1400,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>81</v>
       </c>
@@ -1425,7 +1428,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>84</v>
       </c>
@@ -1453,7 +1456,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>87</v>
       </c>
@@ -1481,7 +1484,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>90</v>
       </c>
@@ -1509,7 +1512,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>95</v>
       </c>
@@ -1537,7 +1540,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>98</v>
       </c>
@@ -1565,7 +1568,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>101</v>
       </c>
@@ -1593,7 +1596,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>104</v>
       </c>
@@ -1617,7 +1620,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>109</v>
       </c>
@@ -1639,7 +1642,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>112</v>
       </c>
@@ -1667,7 +1670,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>118</v>
       </c>
@@ -1689,7 +1692,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>122</v>
       </c>
@@ -1711,7 +1714,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>125</v>
       </c>
@@ -1741,19 +1744,21 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D34" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F34" s="1">
         <v>4</v>
